--- a/Excel/6장(연습).xlsx
+++ b/Excel/6장(연습).xlsx
@@ -8,14 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\20250176\Computer_Utilization_Practice\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58521CAC-CC85-412E-ABCE-0E25A5893CA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE26D36-A67A-402B-9119-5C5A4332A39E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21360" windowHeight="12705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21360" windowHeight="12705" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="평가" sheetId="10" r:id="rId1"/>
     <sheet name="교육" sheetId="12" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="교육시수">교육!$F$3:$F$13</definedName>
+    <definedName name="부서">교육!$C$3:$C$13</definedName>
+    <definedName name="영어점수">교육!$E$3:$E$13</definedName>
+    <definedName name="자격증">교육!$D$3:$D$13</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -375,7 +381,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -426,6 +432,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -710,15 +731,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="9" width="11.625" customWidth="1"/>
+    <col min="5" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.625" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -783,12 +806,12 @@
         <v>28</v>
       </c>
       <c r="F3" s="11">
-        <f>IFERROR(AVERAGE(C3:D3),0)</f>
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="str">
-        <f>IF(E3&gt;=34,"상",IF(E3&gt;=28,"중","하"))</f>
-        <v>중</v>
+        <f>IFERROR(CEILING(AVERAGE(C3:D3),5),0)</f>
+        <v>15</v>
+      </c>
+      <c r="G3" s="17" t="str">
+        <f>REPT("☆",F3/5)&amp;TEXT(_xlfn.RANK.EQ(E3,$E$3:$E$12),"(0등)")</f>
+        <v>☆☆☆(8등)</v>
       </c>
       <c r="H3" s="4" t="str">
         <f>IF(OR(C3&lt;10,D3&lt;10),"재시험","")</f>
@@ -814,16 +837,16 @@
         <v>13</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E3:E12" si="1">SUM(C4:D4)</f>
+        <f t="shared" ref="E4:E12" si="1">SUM(C4:D4)</f>
         <v>33</v>
       </c>
       <c r="F4" s="11">
-        <f t="shared" ref="F4:F12" si="2">IFERROR(AVERAGE(C4:D4),0)</f>
-        <v>16.5</v>
-      </c>
-      <c r="G4" s="4" t="str">
-        <f t="shared" ref="G4:G12" si="3">IF(E4&gt;=34,"상",IF(E4&gt;=28,"중","하"))</f>
-        <v>중</v>
+        <f t="shared" ref="F4:F12" si="2">IFERROR(CEILING(AVERAGE(C4:D4),5),0)</f>
+        <v>20</v>
+      </c>
+      <c r="G4" s="17" t="str">
+        <f t="shared" ref="G4:G12" si="3">REPT("☆",F4/5)&amp;TEXT(_xlfn.RANK.EQ(E4,$E$3:$E$12),"(0등)")</f>
+        <v>☆☆☆☆(4등)</v>
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" ref="H4:H12" si="4">IF(OR(C4&lt;10,D4&lt;10),"재시험","")</f>
@@ -854,11 +877,11 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="G5" s="4" t="str">
+        <v>20</v>
+      </c>
+      <c r="G5" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>중</v>
+        <v>☆☆☆☆(6등)</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="4"/>
@@ -889,11 +912,11 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>16.5</v>
-      </c>
-      <c r="G6" s="4" t="str">
+        <v>20</v>
+      </c>
+      <c r="G6" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>중</v>
+        <v>☆☆☆☆(4등)</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="4"/>
@@ -924,11 +947,11 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="G7" s="4" t="str">
+        <v>15</v>
+      </c>
+      <c r="G7" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>하</v>
+        <v>☆☆☆(9등)</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="4"/>
@@ -959,11 +982,11 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>17.5</v>
-      </c>
-      <c r="G8" s="4" t="str">
+        <v>20</v>
+      </c>
+      <c r="G8" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>상</v>
+        <v>☆☆☆☆(2등)</v>
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="4"/>
@@ -994,11 +1017,11 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="G9" s="4" t="str">
+        <v>20</v>
+      </c>
+      <c r="G9" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>상</v>
+        <v>☆☆☆☆(3등)</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="4"/>
@@ -1029,11 +1052,11 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>15.5</v>
-      </c>
-      <c r="G10" s="4" t="str">
+        <v>20</v>
+      </c>
+      <c r="G10" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>중</v>
+        <v>☆☆☆☆(7등)</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="4"/>
@@ -1062,9 +1085,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G11" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>하</v>
+      <c r="G11" s="17" t="str">
+        <f>REPT("☆",F11/5)&amp;TEXT(_xlfn.RANK.EQ(E11,$E$3:$E$12),"(0등)")</f>
+        <v>(10등)</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="4"/>
@@ -1095,11 +1118,11 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="G12" s="4" t="str">
+        <v>20</v>
+      </c>
+      <c r="G12" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>상</v>
+        <v>☆☆☆☆(1등)</v>
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="4"/>
@@ -1122,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB0AF20-8C35-48E1-8548-CD51B82315A9}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1138,7 +1161,7 @@
     <col min="9" max="9" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" customHeight="1">
+    <row r="1" spans="1:19" ht="24" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>35</v>
       </c>
@@ -1152,7 +1175,7 @@
       </c>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:19">
       <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
@@ -1174,9 +1197,12 @@
       <c r="H2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="12">
+        <f>COUNTA(자격증)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="4">
         <v>212102</v>
       </c>
@@ -1196,9 +1222,12 @@
       <c r="H3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="12">
+        <f>COUNTBLANK(영어점수)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="4">
         <v>181011</v>
       </c>
@@ -1220,9 +1249,12 @@
       <c r="H4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="12">
+        <f>COUNTIF(영어점수,"&gt;=80")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="4">
         <v>205123</v>
       </c>
@@ -1240,9 +1272,12 @@
       <c r="H5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="12">
+        <f>COUNTIF(자격증,"*기사*")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="4">
         <v>212106</v>
       </c>
@@ -1262,9 +1297,12 @@
       <c r="H6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="12">
+        <f>COUNTIF(부서,"=관리부")+COUNTIF(부서,"=영업부")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="4">
         <v>170642</v>
       </c>
@@ -1284,9 +1322,12 @@
       <c r="H7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" s="12">
+        <f>COUNTIF(영어점수,"&gt;=80")-COUNTIF(영어점수,"&gt;90")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="4">
         <v>183419</v>
       </c>
@@ -1306,9 +1347,12 @@
       <c r="H8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="12">
+        <f>COUNTIFS(부서,"영업부",영어점수,"&lt;80")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="4">
         <v>191058</v>
       </c>
@@ -1330,9 +1374,12 @@
       <c r="H9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="12">
+        <f>SUMIF(자격증,"",교육시수)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="4">
         <v>171843</v>
       </c>
@@ -1352,9 +1399,12 @@
       <c r="H10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" s="12">
+        <f>SUMIF(교육시수,"&gt;=10")</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="4">
         <v>190476</v>
       </c>
@@ -1374,9 +1424,16 @@
       <c r="H11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" s="12">
+        <f>SUMIFS(교육시수, 교육시수,"&gt;=10",부서,"개발부")</f>
+        <v>34</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="4">
         <v>182103</v>
       </c>
@@ -1398,9 +1455,15 @@
       <c r="H12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" s="12">
+        <f>AVERAGEIF(부서,"영업부",영어점수)</f>
+        <v>87</v>
+      </c>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="18"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="4">
         <v>217421</v>
       </c>
@@ -1422,9 +1485,15 @@
       <c r="H13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13" s="4">
+        <f>ROUND(AVERAGEIF(영어점수,"&gt;="&amp;E14,교육시수),1)</f>
+        <v>11.3</v>
+      </c>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="18"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="16" t="s">
         <v>45</v>
       </c>
@@ -1442,7 +1511,33 @@
       <c r="H14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="4">
+        <f>AVERAGEIFS(영어점수,교육시수,"&gt;=10",부서,"영업부")</f>
+        <v>87</v>
+      </c>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="18"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="Q15" s="18"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="18"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="Q16" s="18"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="18"/>
+    </row>
+    <row r="17" spans="17:19">
+      <c r="Q17" s="18"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="18"/>
+    </row>
+    <row r="18" spans="17:19">
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
